--- a/www.eia.gov/electricity/monthly/xls/table_1_16_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_16_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.16.B. Utility Scale Facility Net Generation from Geothermal</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -3102,25 +3102,25 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>3668</v>
+        <v>4064</v>
       </c>
       <c r="C52" s="10">
-        <v>2890</v>
+        <v>3252</v>
       </c>
       <c r="D52" s="11">
-        <v>0.26900000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="E52" s="10">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F52" s="10">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G52" s="10">
-        <v>3456</v>
+        <v>3830</v>
       </c>
       <c r="H52" s="10">
-        <v>2673</v>
+        <v>3015</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3216,13 +3216,13 @@
         <v>65</v>
       </c>
       <c r="B55" s="13">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C55" s="13">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D55" s="14">
-        <v>0.315</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="13">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" s="13">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>3143</v>
+        <v>3482</v>
       </c>
       <c r="C57" s="13">
-        <v>2465</v>
+        <v>2784</v>
       </c>
       <c r="D57" s="14">
-        <v>0.27500000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>3143</v>
+        <v>3482</v>
       </c>
       <c r="H57" s="13">
-        <v>2465</v>
+        <v>2784</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="14">
-        <v>0.68300000000000005</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E58" s="13">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I58" s="13">
         <v>0</v>
@@ -3368,25 +3368,25 @@
         <v>69</v>
       </c>
       <c r="B59" s="13">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="C59" s="13">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="D59" s="14">
-        <v>0.21299999999999999</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="E59" s="13">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F59" s="13">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G59" s="13">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="H59" s="13">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3444,25 +3444,25 @@
         <v>71</v>
       </c>
       <c r="B61" s="10">
-        <v>10417</v>
+        <v>11501</v>
       </c>
       <c r="C61" s="10">
-        <v>10125</v>
+        <v>11079</v>
       </c>
       <c r="D61" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E61" s="10">
-        <v>691</v>
+        <v>763</v>
       </c>
       <c r="F61" s="10">
-        <v>681</v>
+        <v>754</v>
       </c>
       <c r="G61" s="10">
-        <v>9726</v>
+        <v>10738</v>
       </c>
       <c r="H61" s="10">
-        <v>9444</v>
+        <v>10325</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>72</v>
       </c>
       <c r="B62" s="13">
-        <v>10263</v>
+        <v>11327</v>
       </c>
       <c r="C62" s="13">
-        <v>9985</v>
+        <v>10920</v>
       </c>
       <c r="D62" s="14">
-        <v>2.8000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E62" s="13">
-        <v>677</v>
+        <v>747</v>
       </c>
       <c r="F62" s="13">
-        <v>681</v>
+        <v>753</v>
       </c>
       <c r="G62" s="13">
-        <v>9586</v>
+        <v>10580</v>
       </c>
       <c r="H62" s="13">
-        <v>9304</v>
+        <v>10167</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>73</v>
       </c>
       <c r="B63" s="13">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C63" s="13">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D63" s="14">
-        <v>9.9000000000000005E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>74</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="13">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H63" s="13">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C65" s="10">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D65" s="11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
@@ -3611,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="10">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="H65" s="10">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I65" s="10">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C67" s="13">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D67" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="13">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="H67" s="13">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3710,25 +3710,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>14290</v>
+        <v>15797</v>
       </c>
       <c r="C68" s="10">
-        <v>13207</v>
+        <v>14541</v>
       </c>
       <c r="D68" s="11">
-        <v>8.2000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>903</v>
+        <v>997</v>
       </c>
       <c r="F68" s="10">
-        <v>898</v>
+        <v>991</v>
       </c>
       <c r="G68" s="10">
-        <v>13387</v>
+        <v>14800</v>
       </c>
       <c r="H68" s="10">
-        <v>12309</v>
+        <v>13549</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
